--- a/data_year/zb/国民经济核算/投入产出完全消耗系数/采矿业投入产出完全消耗系数.xlsx
+++ b/data_year/zb/国民经济核算/投入产出完全消耗系数/采矿业投入产出完全消耗系数.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R6"/>
+  <dimension ref="A1:R5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,280 +523,222 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2007年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.060838342162163</v>
+        <v>0.058847886375065</v>
       </c>
       <c r="C2" t="n">
-        <v>0.052246815321258</v>
+        <v>0.049149309820451</v>
       </c>
       <c r="D2" t="n">
-        <v>0.032503645112819</v>
+        <v>0.038320310315539</v>
       </c>
       <c r="E2" t="n">
-        <v>0.159005509823744</v>
+        <v>0.168032666221076</v>
       </c>
       <c r="F2" t="n">
-        <v>0.002899364624432</v>
+        <v>0.003144728482388</v>
       </c>
       <c r="G2" t="n">
-        <v>0.025676621646675</v>
+        <v>0.031386737908452</v>
       </c>
       <c r="H2" t="n">
-        <v>0.06322812033280099</v>
+        <v>0.06626782870782701</v>
       </c>
       <c r="I2" t="n">
-        <v>0.303973622620033</v>
+        <v>0.312855849227478</v>
       </c>
       <c r="J2" t="n">
-        <v>0.098262268294715</v>
+        <v>0.089944790581857</v>
       </c>
       <c r="K2" t="n">
-        <v>0.206411483426998</v>
+        <v>0.193557121496565</v>
       </c>
       <c r="L2" t="n">
-        <v>0.026718612778884</v>
+        <v>0.026728532979927</v>
       </c>
       <c r="M2" t="n">
-        <v>0.098927200997649</v>
+        <v>0.108121076587457</v>
       </c>
       <c r="N2" t="n">
-        <v>0.218138090111621</v>
+        <v>0.29367090023007</v>
       </c>
       <c r="O2" t="n">
-        <v>0.210076975502444</v>
+        <v>0.196926387975737</v>
       </c>
       <c r="P2" t="n">
-        <v>0.047838379551023</v>
+        <v>0.051357776950954</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.030995448050039</v>
+        <v>0.03520667890813</v>
       </c>
       <c r="R2" t="n">
-        <v>0.025101649865675</v>
+        <v>0.028306293921497</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.058847886375065</v>
+        <v>0.050994846259534</v>
       </c>
       <c r="C3" t="n">
-        <v>0.049149309820451</v>
+        <v>0.043489581313346</v>
       </c>
       <c r="D3" t="n">
-        <v>0.038320310315539</v>
+        <v>0.02872486364729</v>
       </c>
       <c r="E3" t="n">
-        <v>0.168032666221076</v>
+        <v>0.142145363525272</v>
       </c>
       <c r="F3" t="n">
-        <v>0.003144728482388</v>
+        <v>0.007339606595735</v>
       </c>
       <c r="G3" t="n">
-        <v>0.031386737908452</v>
+        <v>0.058169837021427</v>
       </c>
       <c r="H3" t="n">
-        <v>0.06626782870782701</v>
+        <v>0.060229374035328</v>
       </c>
       <c r="I3" t="n">
-        <v>0.312855849227478</v>
+        <v>0.191694061283057</v>
       </c>
       <c r="J3" t="n">
-        <v>0.089944790581857</v>
+        <v>0.077885893824438</v>
       </c>
       <c r="K3" t="n">
-        <v>0.193557121496565</v>
+        <v>0.144782036182064</v>
       </c>
       <c r="L3" t="n">
-        <v>0.026728532979927</v>
+        <v>0.021234593968381</v>
       </c>
       <c r="M3" t="n">
-        <v>0.108121076587457</v>
+        <v>0.076698741782842</v>
       </c>
       <c r="N3" t="n">
-        <v>0.29367090023007</v>
+        <v>0.281584611830251</v>
       </c>
       <c r="O3" t="n">
-        <v>0.196926387975737</v>
+        <v>0.176222007929553</v>
       </c>
       <c r="P3" t="n">
-        <v>0.051357776950954</v>
+        <v>0.08521977530653201</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.03520667890813</v>
+        <v>0.020881527725443</v>
       </c>
       <c r="R3" t="n">
-        <v>0.028306293921497</v>
+        <v>0.028696494118224</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.050994846259534</v>
+        <v>0.074275755432209</v>
       </c>
       <c r="C4" t="n">
-        <v>0.043489581313346</v>
+        <v>0.070871139979461</v>
       </c>
       <c r="D4" t="n">
-        <v>0.02872486364729</v>
+        <v>0.052474356077403</v>
       </c>
       <c r="E4" t="n">
-        <v>0.142145363525272</v>
+        <v>0.196663610486277</v>
       </c>
       <c r="F4" t="n">
-        <v>0.007339606595735</v>
+        <v>0.010877995145028</v>
       </c>
       <c r="G4" t="n">
-        <v>0.058169837021427</v>
+        <v>0.117039045605341</v>
       </c>
       <c r="H4" t="n">
-        <v>0.060229374035328</v>
+        <v>0.107067768691747</v>
       </c>
       <c r="I4" t="n">
-        <v>0.191694061283057</v>
+        <v>0.304581193629576</v>
       </c>
       <c r="J4" t="n">
-        <v>0.077885893824438</v>
+        <v>0.089213060174244</v>
       </c>
       <c r="K4" t="n">
-        <v>0.144782036182064</v>
+        <v>0.181374649945275</v>
       </c>
       <c r="L4" t="n">
-        <v>0.021234593968381</v>
+        <v>0.037191925716658</v>
       </c>
       <c r="M4" t="n">
-        <v>0.076698741782842</v>
+        <v>0.123170694657487</v>
       </c>
       <c r="N4" t="n">
-        <v>0.281584611830251</v>
+        <v>0.288965951830153</v>
       </c>
       <c r="O4" t="n">
-        <v>0.176222007929553</v>
+        <v>0.202407987852194</v>
       </c>
       <c r="P4" t="n">
-        <v>0.08521977530653201</v>
+        <v>0.140146329683197</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.020881527725443</v>
+        <v>0.029558238153442</v>
       </c>
       <c r="R4" t="n">
-        <v>0.028696494118224</v>
+        <v>0.056699778799833</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.074275755432209</v>
+        <v>0.0098363959848</v>
       </c>
       <c r="C5" t="n">
-        <v>0.070871139979461</v>
+        <v>0.094122071509644</v>
       </c>
       <c r="D5" t="n">
-        <v>0.052474356077403</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.196663610486277</v>
-      </c>
+        <v>0.023468585204</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>0.010877995145028</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0.117039045605341</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0.107067768691747</v>
-      </c>
+        <v>0.002143156871896</v>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
       <c r="I5" t="n">
-        <v>0.304581193629576</v>
+        <v>0.173181079507102</v>
       </c>
       <c r="J5" t="n">
-        <v>0.089213060174244</v>
+        <v>0.18606782372339</v>
       </c>
       <c r="K5" t="n">
-        <v>0.181374649945275</v>
+        <v>0.107935998862265</v>
       </c>
       <c r="L5" t="n">
-        <v>0.037191925716658</v>
-      </c>
-      <c r="M5" t="n">
-        <v>0.123170694657487</v>
-      </c>
+        <v>0.020986368053569</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
       <c r="N5" t="n">
-        <v>0.288965951830153</v>
+        <v>0.219168437604247</v>
       </c>
       <c r="O5" t="n">
-        <v>0.202407987852194</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.140146329683197</v>
-      </c>
+        <v>0.112309516444114</v>
+      </c>
+      <c r="P5" t="inlineStr"/>
       <c r="Q5" t="n">
-        <v>0.029558238153442</v>
+        <v>0.015134039891206</v>
       </c>
       <c r="R5" t="n">
-        <v>0.056699778799833</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>2017年</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0.0098363959848</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.094122071509644</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.023468585204</v>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="n">
-        <v>0.002143156871896</v>
-      </c>
-      <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="n">
-        <v>0.173181079507102</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.18606782372339</v>
-      </c>
-      <c r="K6" t="n">
-        <v>0.107935998862265</v>
-      </c>
-      <c r="L6" t="n">
-        <v>0.020986368053569</v>
-      </c>
-      <c r="M6" t="inlineStr"/>
-      <c r="N6" t="n">
-        <v>0.219168437604247</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0.112309516444114</v>
-      </c>
-      <c r="P6" t="inlineStr"/>
-      <c r="Q6" t="n">
-        <v>0.015134039891206</v>
-      </c>
-      <c r="R6" t="n">
         <v>0.0238434146858</v>
       </c>
     </row>
